--- a/Bot/report.xlsx
+++ b/Bot/report.xlsx
@@ -22,7 +22,7 @@
     <t>Взвод</t>
   </si>
   <si>
-    <t>30.9.2020</t>
+    <t>30.09.2020</t>
   </si>
   <si>
     <t>Мельников Иван Олегович</t>
